--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,69 +40,63 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shocking</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>false</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
@@ -127,22 +121,25 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>love</t>
   </si>
   <si>
     <t>thanks</t>
@@ -151,9 +148,6 @@
     <t>powerful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -166,43 +160,43 @@
     <t>worth</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>right</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>documentary</t>
   </si>
   <si>
     <t>…</t>
@@ -577,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -688,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9545454545454546</v>
+        <v>0.9375</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9038461538461539</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.7931034482758621</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.72</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.6842105263157895</v>
+        <v>0.72</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.775</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.631578947368421</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.5925925925925926</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6875</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,16 +1153,16 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.675</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>0.5</v>
@@ -1238,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6470588235294118</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>0.4242424242424243</v>
@@ -1288,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6428571428571429</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1306,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.3055555555555556</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6159420289855072</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.2542372881355932</v>
+        <v>0.2586520947176685</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,16 +1403,16 @@
         <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2504553734061931</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L18">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>823</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.574468085106383</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.2195121951219512</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5714285714285714</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.2131147540983606</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1530,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,13 +1532,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5652173913043478</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1556,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.1692307692307692</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,13 +1582,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5416666666666666</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1606,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.1666666666666667</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1632,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5263157894736842</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,31 +1650,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="L23">
         <v>9</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>56</v>
-      </c>
-      <c r="K23">
-        <v>0.1647058823529412</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
-      <c r="M23">
-        <v>14</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,13 +1682,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,19 +1700,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.1473684210526316</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1730,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,13 +1732,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1756,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.05925925925925926</v>
+        <v>0.04593639575971731</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1780,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>508</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1782,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3571428571428572</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1806,19 +1800,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.0469208211143695</v>
+        <v>0.04518072289156626</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1830,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>325</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1838,38 +1832,38 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3333333333333333</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>67</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.03812316715542522</v>
+      </c>
+      <c r="L27">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>13</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>26</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27">
-        <v>0.04066265060240964</v>
-      </c>
-      <c r="L27">
-        <v>27</v>
-      </c>
-      <c r="M27">
-        <v>27</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -1880,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>637</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1888,137 +1882,89 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3214285714285715</v>
+        <v>0.05033557046979865</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
+        <v>283</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.03518518518518519</v>
+      </c>
+      <c r="L28">
         <v>19</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="M28">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29">
+        <v>0.0275974025974026</v>
+      </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28">
-        <v>0.03246753246753246</v>
-      </c>
-      <c r="L28">
-        <v>20</v>
-      </c>
-      <c r="M28">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>66</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.03180212014134275</v>
-      </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <v>9</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
+      <c r="K30">
+        <v>0.02016129032258064</v>
+      </c>
+      <c r="L30">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>0.0436241610738255</v>
-      </c>
-      <c r="C30">
-        <v>13</v>
-      </c>
-      <c r="D30">
-        <v>14</v>
-      </c>
-      <c r="E30">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>285</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30">
-        <v>0.02534562211981567</v>
-      </c>
-      <c r="L30">
-        <v>44</v>
-      </c>
       <c r="M30">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2030,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1692</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.02176696542893726</v>
+        <v>0.01792573623559539</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2056,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
